--- a/tests/testthat/test_xlsx_files/data_to_worksheet.xlsx
+++ b/tests/testthat/test_xlsx_files/data_to_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashilderson/Documents/Coding/xlr/tests/testthat/test_xlsx_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FD76F-61BF-CC4F-AA5A-43C2879AF27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98795C86-8F7F-7747-A7E9-DCC3A9E3A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>test</t>
   </si>
@@ -62,6 +62,105 @@
   </si>
   <si>
     <t>1+1i</t>
+  </si>
+  <si>
+    <t>test_xlr_n_percent</t>
+  </si>
+  <si>
+    <t>1 (3%)</t>
+  </si>
+  <si>
+    <t>2 (6%)</t>
+  </si>
+  <si>
+    <t>3 (9%)</t>
+  </si>
+  <si>
+    <t>4 (12%)</t>
+  </si>
+  <si>
+    <t>5 (16%)</t>
+  </si>
+  <si>
+    <t>6 (19%)</t>
+  </si>
+  <si>
+    <t>7 (22%)</t>
+  </si>
+  <si>
+    <t>8 (25%)</t>
+  </si>
+  <si>
+    <t>9 (28%)</t>
+  </si>
+  <si>
+    <t>10 (31%)</t>
+  </si>
+  <si>
+    <t>11 (34%)</t>
+  </si>
+  <si>
+    <t>12 (38%)</t>
+  </si>
+  <si>
+    <t>13 (41%)</t>
+  </si>
+  <si>
+    <t>14 (44%)</t>
+  </si>
+  <si>
+    <t>15 (47%)</t>
+  </si>
+  <si>
+    <t>16 (50%)</t>
+  </si>
+  <si>
+    <t>17 (53%)</t>
+  </si>
+  <si>
+    <t>18 (56%)</t>
+  </si>
+  <si>
+    <t>19 (59%)</t>
+  </si>
+  <si>
+    <t>20 (62%)</t>
+  </si>
+  <si>
+    <t>21 (66%)</t>
+  </si>
+  <si>
+    <t>22 (69%)</t>
+  </si>
+  <si>
+    <t>23 (72%)</t>
+  </si>
+  <si>
+    <t>24 (75%)</t>
+  </si>
+  <si>
+    <t>25 (78%)</t>
+  </si>
+  <si>
+    <t>26 (81%)</t>
+  </si>
+  <si>
+    <t>27 (84%)</t>
+  </si>
+  <si>
+    <t>28 (88%)</t>
+  </si>
+  <si>
+    <t>29 (91%)</t>
+  </si>
+  <si>
+    <t>30 (94%)</t>
+  </si>
+  <si>
+    <t>31 (97%)</t>
+  </si>
+  <si>
+    <t>32 (100%)</t>
   </si>
 </sst>
 </file>
@@ -191,9 +290,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F37171A-48B9-1F45-976F-C12CB11E1911}" name="table_test" displayName="table_test" ref="A2:J34" totalsRowShown="0">
-  <autoFilter ref="A2:J34" xr:uid="{2F37171A-48B9-1F45-976F-C12CB11E1911}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F37171A-48B9-1F45-976F-C12CB11E1911}" name="table_test" displayName="table_test" ref="A2:K34" totalsRowShown="0">
+  <autoFilter ref="A2:K34" xr:uid="{2F37171A-48B9-1F45-976F-C12CB11E1911}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BA6CD134-F555-CA44-8842-5F3FFBA55F41}" name="test_r_numeric"/>
     <tableColumn id="2" xr3:uid="{45E38D07-4077-704D-8765-D070882FB80B}" name="test_r_integer"/>
     <tableColumn id="3" xr3:uid="{22C78EF5-C3CF-844C-9587-1ABEB2985D06}" name="test_xlr_numeric"/>
@@ -204,6 +303,7 @@
     <tableColumn id="8" xr3:uid="{788DB702-7557-F244-A60B-0B169BC1E5AC}" name="test_xlr_scientific"/>
     <tableColumn id="9" xr3:uid="{5AD8C718-73C0-FC4C-971B-80C3A4596CE9}" name="test_r_factor"/>
     <tableColumn id="10" xr3:uid="{4E489EC6-FF30-8741-8FB7-490078D7F83A}" name="test_r_complex"/>
+    <tableColumn id="11" xr3:uid="{1BC591C4-024F-CD4F-BC7A-65A4C97E80BB}" name="test_xlr_n_percent"/>
   </tableColumns>
   <tableStyleInfo name="none" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,15 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -508,7 +611,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -539,8 +642,11 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>21</v>
       </c>
@@ -571,8 +677,11 @@
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>21</v>
       </c>
@@ -603,8 +712,11 @@
       <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>22.8</v>
       </c>
@@ -635,8 +747,11 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>21.4</v>
       </c>
@@ -667,8 +782,11 @@
       <c r="J6" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>18.7</v>
       </c>
@@ -699,8 +817,11 @@
       <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>18.100000000000001</v>
       </c>
@@ -731,8 +852,11 @@
       <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>14.3</v>
       </c>
@@ -763,8 +887,11 @@
       <c r="J9" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>24.4</v>
       </c>
@@ -795,8 +922,11 @@
       <c r="J10" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>22.8</v>
       </c>
@@ -827,8 +957,11 @@
       <c r="J11" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>19.2</v>
       </c>
@@ -859,8 +992,11 @@
       <c r="J12" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>17.8</v>
       </c>
@@ -891,8 +1027,11 @@
       <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>16.399999999999999</v>
       </c>
@@ -923,8 +1062,11 @@
       <c r="J14" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>17.3</v>
       </c>
@@ -955,8 +1097,11 @@
       <c r="J15" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15.2</v>
       </c>
@@ -987,8 +1132,11 @@
       <c r="J16" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>10.4</v>
       </c>
@@ -1019,8 +1167,11 @@
       <c r="J17" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>10.4</v>
       </c>
@@ -1051,8 +1202,11 @@
       <c r="J18" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>14.7</v>
       </c>
@@ -1083,8 +1237,11 @@
       <c r="J19" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>32.4</v>
       </c>
@@ -1115,8 +1272,11 @@
       <c r="J20" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>30.4</v>
       </c>
@@ -1147,8 +1307,11 @@
       <c r="J21" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>33.9</v>
       </c>
@@ -1179,8 +1342,11 @@
       <c r="J22" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21.5</v>
       </c>
@@ -1211,8 +1377,11 @@
       <c r="J23" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>15.5</v>
       </c>
@@ -1243,8 +1412,11 @@
       <c r="J24" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>15.2</v>
       </c>
@@ -1275,8 +1447,11 @@
       <c r="J25" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>13.3</v>
       </c>
@@ -1307,8 +1482,11 @@
       <c r="J26" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>19.2</v>
       </c>
@@ -1339,8 +1517,11 @@
       <c r="J27" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27.3</v>
       </c>
@@ -1371,8 +1552,11 @@
       <c r="J28" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -1403,8 +1587,11 @@
       <c r="J29" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>30.4</v>
       </c>
@@ -1435,8 +1622,11 @@
       <c r="J30" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>15.8</v>
       </c>
@@ -1467,8 +1657,11 @@
       <c r="J31" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>19.7</v>
       </c>
@@ -1499,8 +1692,11 @@
       <c r="J32" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -1531,8 +1727,11 @@
       <c r="J33" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>21.4</v>
       </c>
@@ -1563,8 +1762,11 @@
       <c r="J34" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1576,7 +1778,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
